--- a/NARR institution.xlsx
+++ b/NARR institution.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Desktop\NARR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1042">
   <si>
     <t>Abubakar Tafawa Balewa University, Bauchi</t>
   </si>
@@ -1663,9 +1658,6 @@
   </si>
   <si>
     <t>S/N</t>
-  </si>
-  <si>
-    <t>Name of Institution</t>
   </si>
   <si>
     <t>Acronym</t>
@@ -3162,11 +3154,23 @@
   <si>
     <t>easternpolytechnic.org</t>
   </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>nuull</t>
+  </si>
+  <si>
+    <t>logourl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -3374,7 +3378,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3399,6 +3403,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -3477,7 +3484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3512,7 +3519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3689,63 +3696,69 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G388"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H388"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F375" sqref="F375"/>
+      <selection activeCell="H3" sqref="A1:H388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="65" customWidth="1"/>
-    <col min="3" max="5" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="47.25" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="14" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="42.75" customWidth="1"/>
+    <col min="9" max="14" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="B1" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>547</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>548</v>
+        <v>1038</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3753,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -3768,7 +3781,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -3777,13 +3790,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -3792,7 +3805,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <f t="shared" ref="A5:A45" si="0">A4+1</f>
         <v>3</v>
@@ -3801,13 +3814,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3816,7 +3829,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3825,13 +3838,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3840,7 +3853,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3849,13 +3862,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -3864,7 +3877,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3873,13 +3886,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -3888,7 +3901,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3897,13 +3910,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -3912,7 +3925,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3921,13 +3934,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -3936,7 +3949,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3945,13 +3958,13 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -3960,7 +3973,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3969,13 +3982,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -3984,7 +3997,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3993,13 +4006,13 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -4008,7 +4021,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4017,13 +4030,13 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -4032,7 +4045,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4041,13 +4054,13 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E15" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
@@ -4056,7 +4069,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4065,13 +4078,13 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E16" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
@@ -4089,13 +4102,13 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -4113,13 +4126,13 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
@@ -4137,13 +4150,13 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
@@ -4161,13 +4174,13 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E20" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -4185,13 +4198,13 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>
@@ -4209,13 +4222,13 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F22" t="s">
         <v>41</v>
@@ -4233,13 +4246,13 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E23" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F23" t="s">
         <v>43</v>
@@ -4257,13 +4270,13 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F24" t="s">
         <v>45</v>
@@ -4281,13 +4294,13 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E25" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F25" t="s">
         <v>47</v>
@@ -4305,13 +4318,13 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E26" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
@@ -4329,13 +4342,13 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
@@ -4353,13 +4366,13 @@
         <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E28" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
@@ -4377,13 +4390,13 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F29" t="s">
         <v>55</v>
@@ -4401,13 +4414,13 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F30" t="s">
         <v>57</v>
@@ -4425,13 +4438,13 @@
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F31" t="s">
         <v>59</v>
@@ -4449,13 +4462,13 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E32" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F32" t="s">
         <v>61</v>
@@ -4473,13 +4486,13 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F33" t="s">
         <v>63</v>
@@ -4497,13 +4510,13 @@
         <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F34" t="s">
         <v>65</v>
@@ -4521,13 +4534,13 @@
         <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E35" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F35" t="s">
         <v>67</v>
@@ -4545,13 +4558,13 @@
         <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F36" t="s">
         <v>69</v>
@@ -4569,13 +4582,13 @@
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F37" t="s">
         <v>71</v>
@@ -4593,13 +4606,13 @@
         <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F38" t="s">
         <v>73</v>
@@ -4617,13 +4630,13 @@
         <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F39" t="s">
         <v>75</v>
@@ -4641,13 +4654,13 @@
         <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E40" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F40" t="s">
         <v>77</v>
@@ -4665,13 +4678,13 @@
         <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E41" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F41" t="s">
         <v>79</v>
@@ -4689,13 +4702,13 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E42" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F42" t="s">
         <v>81</v>
@@ -4713,13 +4726,16 @@
         <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E43" t="s">
-        <v>799</v>
+        <v>798</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1039</v>
       </c>
       <c r="G43">
         <v>2018</v>
@@ -4734,13 +4750,13 @@
         <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
@@ -4758,13 +4774,13 @@
         <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E45" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F45" t="s">
         <v>86</v>
@@ -4789,13 +4805,13 @@
         <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E47" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F47" t="s">
         <v>89</v>
@@ -4813,13 +4829,13 @@
         <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E48" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -4837,13 +4853,13 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E49" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F49" t="s">
         <v>93</v>
@@ -4861,13 +4877,13 @@
         <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E50" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F50" t="s">
         <v>95</v>
@@ -4885,13 +4901,13 @@
         <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E51" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F51" t="s">
         <v>97</v>
@@ -4909,13 +4925,13 @@
         <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E52" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F52" t="s">
         <v>99</v>
@@ -4933,13 +4949,13 @@
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E53" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F53" t="s">
         <v>101</v>
@@ -4957,13 +4973,13 @@
         <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E54" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F54" t="s">
         <v>103</v>
@@ -4981,13 +4997,13 @@
         <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E55" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F55" t="s">
         <v>105</v>
@@ -5005,13 +5021,13 @@
         <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E56" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F56" t="s">
         <v>107</v>
@@ -5029,13 +5045,13 @@
         <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E57" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F57" t="s">
         <v>109</v>
@@ -5053,13 +5069,13 @@
         <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E58" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F58" t="s">
         <v>111</v>
@@ -5077,13 +5093,13 @@
         <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E59" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F59" t="s">
         <v>113</v>
@@ -5101,13 +5117,13 @@
         <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E60" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F60" t="s">
         <v>115</v>
@@ -5125,13 +5141,13 @@
         <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E61" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F61" t="s">
         <v>117</v>
@@ -5149,13 +5165,13 @@
         <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E62" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F62" t="s">
         <v>119</v>
@@ -5173,13 +5189,13 @@
         <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E63" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F63" t="s">
         <v>121</v>
@@ -5197,13 +5213,13 @@
         <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E64" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F64" t="s">
         <v>123</v>
@@ -5221,13 +5237,13 @@
         <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F65" t="s">
         <v>125</v>
@@ -5245,13 +5261,13 @@
         <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E66" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F66" t="s">
         <v>127</v>
@@ -5269,13 +5285,13 @@
         <v>128</v>
       </c>
       <c r="C67" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E67" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F67" t="s">
         <v>129</v>
@@ -5293,13 +5309,13 @@
         <v>130</v>
       </c>
       <c r="C68" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E68" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F68" t="s">
         <v>131</v>
@@ -5317,13 +5333,13 @@
         <v>132</v>
       </c>
       <c r="C69" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E69" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
@@ -5341,13 +5357,13 @@
         <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E70" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F70" t="s">
         <v>135</v>
@@ -5365,13 +5381,13 @@
         <v>136</v>
       </c>
       <c r="C71" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E71" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F71" t="s">
         <v>137</v>
@@ -5389,13 +5405,13 @@
         <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E72" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F72" t="s">
         <v>139</v>
@@ -5413,13 +5429,13 @@
         <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D73" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E73" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F73" t="s">
         <v>141</v>
@@ -5437,13 +5453,13 @@
         <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E74" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F74" t="s">
         <v>143</v>
@@ -5461,13 +5477,13 @@
         <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E75" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F75" t="s">
         <v>145</v>
@@ -5485,13 +5501,13 @@
         <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E76" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F76" t="s">
         <v>147</v>
@@ -5509,13 +5525,13 @@
         <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E77" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F77" t="s">
         <v>149</v>
@@ -5533,13 +5549,13 @@
         <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E78" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F78" t="s">
         <v>151</v>
@@ -5557,13 +5573,13 @@
         <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E79" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F79" t="s">
         <v>153</v>
@@ -5581,13 +5597,13 @@
         <v>154</v>
       </c>
       <c r="C80" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E80" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F80" t="s">
         <v>155</v>
@@ -5605,13 +5621,13 @@
         <v>156</v>
       </c>
       <c r="C81" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E81" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F81" t="s">
         <v>157</v>
@@ -5629,13 +5645,13 @@
         <v>158</v>
       </c>
       <c r="C82" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F82" t="s">
         <v>159</v>
@@ -5653,13 +5669,13 @@
         <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E83" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F83" t="s">
         <v>161</v>
@@ -5677,13 +5693,13 @@
         <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E84" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F84" t="s">
         <v>163</v>
@@ -5701,13 +5717,13 @@
         <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F85" t="s">
         <v>165</v>
@@ -5725,13 +5741,13 @@
         <v>166</v>
       </c>
       <c r="C86" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E86" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F86" t="s">
         <v>167</v>
@@ -5749,13 +5765,13 @@
         <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E87" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F87" t="s">
         <v>169</v>
@@ -5773,13 +5789,13 @@
         <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E88" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F88" t="s">
         <v>171</v>
@@ -5797,13 +5813,13 @@
         <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E89" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F89" t="s">
         <v>173</v>
@@ -5821,16 +5837,16 @@
         <v>174</v>
       </c>
       <c r="C90" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E90" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F90" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G90">
         <v>2016</v>
@@ -5845,16 +5861,16 @@
         <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E91" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F91" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G91">
         <v>2017</v>
@@ -5869,16 +5885,16 @@
         <v>176</v>
       </c>
       <c r="C92" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E92" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F92" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G92">
         <v>2017</v>
@@ -5893,13 +5909,16 @@
         <v>177</v>
       </c>
       <c r="C93" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E93" t="s">
-        <v>801</v>
+        <v>800</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1039</v>
       </c>
       <c r="G93">
         <v>2018</v>
@@ -5921,13 +5940,13 @@
         <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E95" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F95" t="s">
         <v>180</v>
@@ -5945,13 +5964,13 @@
         <v>181</v>
       </c>
       <c r="C96" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E96" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F96" t="s">
         <v>182</v>
@@ -5969,13 +5988,13 @@
         <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E97" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F97" t="s">
         <v>184</v>
@@ -5993,13 +6012,13 @@
         <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E98" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F98" t="s">
         <v>186</v>
@@ -6017,13 +6036,13 @@
         <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E99" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F99" t="s">
         <v>188</v>
@@ -6041,13 +6060,13 @@
         <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E100" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F100" t="s">
         <v>190</v>
@@ -6065,13 +6084,13 @@
         <v>191</v>
       </c>
       <c r="C101" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E101" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F101" t="s">
         <v>192</v>
@@ -6089,13 +6108,13 @@
         <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E102" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F102" t="s">
         <v>194</v>
@@ -6113,13 +6132,13 @@
         <v>195</v>
       </c>
       <c r="C103" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E103" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F103" t="s">
         <v>196</v>
@@ -6137,13 +6156,13 @@
         <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E104" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F104" t="s">
         <v>198</v>
@@ -6161,13 +6180,13 @@
         <v>199</v>
       </c>
       <c r="C105" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E105" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F105" t="s">
         <v>200</v>
@@ -6185,13 +6204,13 @@
         <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E106" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F106" t="s">
         <v>202</v>
@@ -6209,13 +6228,13 @@
         <v>203</v>
       </c>
       <c r="C107" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E107" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F107" t="s">
         <v>204</v>
@@ -6233,13 +6252,13 @@
         <v>205</v>
       </c>
       <c r="C108" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E108" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F108" t="s">
         <v>206</v>
@@ -6257,13 +6276,13 @@
         <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E109" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F109" t="s">
         <v>208</v>
@@ -6281,13 +6300,13 @@
         <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E110" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F110" t="s">
         <v>210</v>
@@ -6305,13 +6324,13 @@
         <v>211</v>
       </c>
       <c r="C111" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E111" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F111" t="s">
         <v>212</v>
@@ -6329,13 +6348,13 @@
         <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E112" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F112" t="s">
         <v>214</v>
@@ -6353,13 +6372,13 @@
         <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E113" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F113" t="s">
         <v>216</v>
@@ -6377,13 +6396,13 @@
         <v>217</v>
       </c>
       <c r="C114" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E114" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F114" t="s">
         <v>218</v>
@@ -6401,13 +6420,13 @@
         <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E115" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F115" t="s">
         <v>220</v>
@@ -6425,13 +6444,13 @@
         <v>221</v>
       </c>
       <c r="C116" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E116" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F116" t="s">
         <v>222</v>
@@ -6449,13 +6468,13 @@
         <v>223</v>
       </c>
       <c r="C117" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E117" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F117" t="s">
         <v>224</v>
@@ -6473,13 +6492,13 @@
         <v>225</v>
       </c>
       <c r="C118" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E118" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F118" t="s">
         <v>226</v>
@@ -6497,13 +6516,13 @@
         <v>227</v>
       </c>
       <c r="C119" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E119" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F119" t="s">
         <v>228</v>
@@ -6521,13 +6540,13 @@
         <v>229</v>
       </c>
       <c r="C120" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E120" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F120" t="s">
         <v>230</v>
@@ -6545,13 +6564,13 @@
         <v>231</v>
       </c>
       <c r="C121" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E121" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F121" t="s">
         <v>232</v>
@@ -6569,13 +6588,13 @@
         <v>233</v>
       </c>
       <c r="C122" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E122" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F122" t="s">
         <v>234</v>
@@ -6593,13 +6612,13 @@
         <v>235</v>
       </c>
       <c r="C123" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E123" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F123" t="s">
         <v>236</v>
@@ -6617,13 +6636,13 @@
         <v>237</v>
       </c>
       <c r="C124" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F124" t="s">
         <v>238</v>
@@ -6641,13 +6660,13 @@
         <v>239</v>
       </c>
       <c r="C125" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E125" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F125" t="s">
         <v>240</v>
@@ -6665,13 +6684,13 @@
         <v>241</v>
       </c>
       <c r="C126" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E126" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F126" t="s">
         <v>242</v>
@@ -6689,13 +6708,13 @@
         <v>243</v>
       </c>
       <c r="C127" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E127" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F127" t="s">
         <v>244</v>
@@ -6713,13 +6732,13 @@
         <v>245</v>
       </c>
       <c r="C128" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E128" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F128" t="s">
         <v>246</v>
@@ -6737,13 +6756,13 @@
         <v>247</v>
       </c>
       <c r="C129" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E129" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F129" t="s">
         <v>248</v>
@@ -6761,13 +6780,13 @@
         <v>249</v>
       </c>
       <c r="C130" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E130" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F130" t="s">
         <v>250</v>
@@ -6785,13 +6804,13 @@
         <v>251</v>
       </c>
       <c r="C131" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E131" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F131" t="s">
         <v>252</v>
@@ -6809,13 +6828,13 @@
         <v>253</v>
       </c>
       <c r="C132" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E132" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F132" t="s">
         <v>254</v>
@@ -6833,13 +6852,13 @@
         <v>255</v>
       </c>
       <c r="C133" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E133" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F133" t="s">
         <v>256</v>
@@ -6857,13 +6876,13 @@
         <v>257</v>
       </c>
       <c r="C134" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E134" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F134" t="s">
         <v>258</v>
@@ -6881,13 +6900,13 @@
         <v>259</v>
       </c>
       <c r="C135" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E135" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F135" t="s">
         <v>260</v>
@@ -6905,13 +6924,13 @@
         <v>261</v>
       </c>
       <c r="C136" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E136" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F136" t="s">
         <v>262</v>
@@ -6929,13 +6948,13 @@
         <v>263</v>
       </c>
       <c r="C137" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E137" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F137" t="s">
         <v>264</v>
@@ -6953,13 +6972,13 @@
         <v>265</v>
       </c>
       <c r="C138" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E138" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F138" t="s">
         <v>266</v>
@@ -6977,13 +6996,13 @@
         <v>267</v>
       </c>
       <c r="C139" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E139" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F139" t="s">
         <v>268</v>
@@ -7001,13 +7020,13 @@
         <v>269</v>
       </c>
       <c r="C140" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E140" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F140" t="s">
         <v>270</v>
@@ -7025,13 +7044,13 @@
         <v>271</v>
       </c>
       <c r="C141" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E141" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F141" t="s">
         <v>272</v>
@@ -7049,13 +7068,13 @@
         <v>273</v>
       </c>
       <c r="C142" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E142" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F142" t="s">
         <v>274</v>
@@ -7073,13 +7092,13 @@
         <v>275</v>
       </c>
       <c r="C143" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E143" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F143" t="s">
         <v>276</v>
@@ -7097,13 +7116,13 @@
         <v>277</v>
       </c>
       <c r="C144" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E144" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F144" t="s">
         <v>278</v>
@@ -7121,13 +7140,13 @@
         <v>279</v>
       </c>
       <c r="C145" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E145" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F145" t="s">
         <v>280</v>
@@ -7145,13 +7164,13 @@
         <v>281</v>
       </c>
       <c r="C146" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E146" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F146" t="s">
         <v>282</v>
@@ -7169,13 +7188,13 @@
         <v>283</v>
       </c>
       <c r="C147" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E147" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F147" t="s">
         <v>284</v>
@@ -7193,13 +7212,13 @@
         <v>285</v>
       </c>
       <c r="C148" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E148" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F148" t="s">
         <v>286</v>
@@ -7217,13 +7236,13 @@
         <v>287</v>
       </c>
       <c r="C149" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E149" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F149" t="s">
         <v>288</v>
@@ -7241,13 +7260,13 @@
         <v>289</v>
       </c>
       <c r="C150" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E150" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F150" t="s">
         <v>290</v>
@@ -7265,13 +7284,13 @@
         <v>291</v>
       </c>
       <c r="C151" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E151" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F151" t="s">
         <v>292</v>
@@ -7289,13 +7308,13 @@
         <v>293</v>
       </c>
       <c r="C152" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E152" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F152" t="s">
         <v>294</v>
@@ -7313,13 +7332,13 @@
         <v>295</v>
       </c>
       <c r="C153" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E153" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F153" t="s">
         <v>296</v>
@@ -7337,13 +7356,13 @@
         <v>297</v>
       </c>
       <c r="C154" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E154" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F154" t="s">
         <v>298</v>
@@ -7361,13 +7380,13 @@
         <v>299</v>
       </c>
       <c r="C155" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E155" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F155" t="s">
         <v>300</v>
@@ -7385,13 +7404,13 @@
         <v>301</v>
       </c>
       <c r="C156" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E156" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F156" t="s">
         <v>302</v>
@@ -7409,13 +7428,13 @@
         <v>303</v>
       </c>
       <c r="C157" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E157" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F157" t="s">
         <v>304</v>
@@ -7433,13 +7452,13 @@
         <v>305</v>
       </c>
       <c r="C158" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E158" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F158" t="s">
         <v>306</v>
@@ -7457,13 +7476,13 @@
         <v>307</v>
       </c>
       <c r="C159" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E159" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F159" t="s">
         <v>308</v>
@@ -7481,16 +7500,16 @@
         <v>309</v>
       </c>
       <c r="C160" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E160" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F160" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G160">
         <v>2016</v>
@@ -7505,16 +7524,16 @@
         <v>310</v>
       </c>
       <c r="C161" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E161" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F161" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G161">
         <v>2016</v>
@@ -7529,13 +7548,13 @@
         <v>311</v>
       </c>
       <c r="C162" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E162" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F162" t="s">
         <v>312</v>
@@ -7553,13 +7572,13 @@
         <v>313</v>
       </c>
       <c r="C163" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E163" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F163" t="s">
         <v>314</v>
@@ -7577,16 +7596,16 @@
         <v>315</v>
       </c>
       <c r="C164" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E164" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F164" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G164">
         <v>2017</v>
@@ -7601,16 +7620,16 @@
         <v>316</v>
       </c>
       <c r="C165" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E165" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F165" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G165">
         <v>2017</v>
@@ -7625,16 +7644,16 @@
         <v>317</v>
       </c>
       <c r="C166" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E166" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F166" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G166">
         <v>2017</v>
@@ -7649,16 +7668,16 @@
         <v>318</v>
       </c>
       <c r="C167" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E167" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F167" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G167">
         <v>2017</v>
@@ -7673,13 +7692,13 @@
         <v>319</v>
       </c>
       <c r="C168" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E168" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F168" t="s">
         <v>320</v>
@@ -7697,16 +7716,16 @@
         <v>321</v>
       </c>
       <c r="C169" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E169" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F169" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G169">
         <v>2018</v>
@@ -7719,6 +7738,9 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
+      <c r="F170" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
@@ -7728,13 +7750,13 @@
         <v>323</v>
       </c>
       <c r="C171" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E171" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F171" t="s">
         <v>324</v>
@@ -7752,13 +7774,13 @@
         <v>325</v>
       </c>
       <c r="C172" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E172" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F172" t="s">
         <v>326</v>
@@ -7776,13 +7798,13 @@
         <v>327</v>
       </c>
       <c r="C173" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E173" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F173" t="s">
         <v>328</v>
@@ -7800,13 +7822,13 @@
         <v>329</v>
       </c>
       <c r="C174" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E174" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F174" t="s">
         <v>330</v>
@@ -7824,13 +7846,13 @@
         <v>331</v>
       </c>
       <c r="C175" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E175" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F175" t="s">
         <v>332</v>
@@ -7848,13 +7870,13 @@
         <v>333</v>
       </c>
       <c r="C176" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E176" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F176" t="s">
         <v>334</v>
@@ -7872,13 +7894,13 @@
         <v>335</v>
       </c>
       <c r="C177" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E177" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F177" t="s">
         <v>336</v>
@@ -7896,13 +7918,13 @@
         <v>337</v>
       </c>
       <c r="C178" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E178" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F178" t="s">
         <v>338</v>
@@ -7920,13 +7942,16 @@
         <v>339</v>
       </c>
       <c r="C179" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E179" t="s">
-        <v>799</v>
+        <v>798</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1040</v>
       </c>
       <c r="G179">
         <v>2007</v>
@@ -7941,13 +7966,13 @@
         <v>340</v>
       </c>
       <c r="C180" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E180" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F180" t="s">
         <v>341</v>
@@ -7965,13 +7990,13 @@
         <v>342</v>
       </c>
       <c r="C181" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E181" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F181" t="s">
         <v>343</v>
@@ -7989,13 +8014,13 @@
         <v>344</v>
       </c>
       <c r="C182" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E182" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F182" t="s">
         <v>345</v>
@@ -8013,13 +8038,13 @@
         <v>346</v>
       </c>
       <c r="C183" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E183" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F183" t="s">
         <v>347</v>
@@ -8037,13 +8062,13 @@
         <v>348</v>
       </c>
       <c r="C184" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E184" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F184" t="s">
         <v>349</v>
@@ -8061,13 +8086,13 @@
         <v>350</v>
       </c>
       <c r="C185" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E185" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F185" t="s">
         <v>351</v>
@@ -8085,13 +8110,13 @@
         <v>352</v>
       </c>
       <c r="C186" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E186" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F186" t="s">
         <v>353</v>
@@ -8109,13 +8134,13 @@
         <v>354</v>
       </c>
       <c r="C187" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E187" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F187" t="s">
         <v>355</v>
@@ -8133,13 +8158,13 @@
         <v>356</v>
       </c>
       <c r="C188" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E188" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F188" t="s">
         <v>357</v>
@@ -8157,13 +8182,13 @@
         <v>358</v>
       </c>
       <c r="C189" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E189" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F189" t="s">
         <v>359</v>
@@ -8181,13 +8206,16 @@
         <v>360</v>
       </c>
       <c r="C190" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E190" t="s">
-        <v>799</v>
+        <v>798</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1039</v>
       </c>
       <c r="G190">
         <v>2014</v>
@@ -8202,13 +8230,13 @@
         <v>361</v>
       </c>
       <c r="C191" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E191" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F191" t="s">
         <v>362</v>
@@ -8226,13 +8254,13 @@
         <v>363</v>
       </c>
       <c r="C192" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E192" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F192" t="s">
         <v>364</v>
@@ -8250,13 +8278,13 @@
         <v>365</v>
       </c>
       <c r="C193" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E193" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F193" t="s">
         <v>366</v>
@@ -8274,13 +8302,13 @@
         <v>367</v>
       </c>
       <c r="C194" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E194" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F194" t="s">
         <v>368</v>
@@ -8298,13 +8326,13 @@
         <v>369</v>
       </c>
       <c r="C195" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E195" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F195" t="s">
         <v>370</v>
@@ -8322,13 +8350,13 @@
         <v>371</v>
       </c>
       <c r="C196" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E196" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F196" t="s">
         <v>372</v>
@@ -8346,13 +8374,13 @@
         <v>373</v>
       </c>
       <c r="C197" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E197" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F197" t="s">
         <v>374</v>
@@ -8370,13 +8398,13 @@
         <v>375</v>
       </c>
       <c r="C198" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E198" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F198" t="s">
         <v>376</v>
@@ -8391,19 +8419,19 @@
         <v>29</v>
       </c>
       <c r="B199" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="E199" t="s">
+        <v>798</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="E199" t="s">
-        <v>799</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="G199">
         <v>1978</v>
@@ -8424,16 +8452,16 @@
         <v>378</v>
       </c>
       <c r="C201" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E201" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F201" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G201">
         <v>1992</v>
@@ -8448,16 +8476,16 @@
         <v>379</v>
       </c>
       <c r="C202" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E202" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F202" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G202">
         <v>1992</v>
@@ -8472,16 +8500,16 @@
         <v>380</v>
       </c>
       <c r="C203" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E203" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F203" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G203">
         <v>2004</v>
@@ -8496,16 +8524,16 @@
         <v>381</v>
       </c>
       <c r="C204" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E204" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F204" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G204">
         <v>1988</v>
@@ -8520,16 +8548,16 @@
         <v>382</v>
       </c>
       <c r="C205" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E205" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F205" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G205">
         <v>1991</v>
@@ -8544,16 +8572,16 @@
         <v>383</v>
       </c>
       <c r="C206" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E206" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F206" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G206">
         <v>1997</v>
@@ -8568,16 +8596,16 @@
         <v>384</v>
       </c>
       <c r="C207" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E207" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F207" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G207">
         <v>1991</v>
@@ -8592,15 +8620,17 @@
         <v>385</v>
       </c>
       <c r="C208" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E208" t="s">
-        <v>801</v>
-      </c>
-      <c r="F208" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>1039</v>
+      </c>
       <c r="G208">
         <v>2002</v>
       </c>
@@ -8614,16 +8644,16 @@
         <v>386</v>
       </c>
       <c r="C209" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E209" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F209" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G209">
         <v>1976</v>
@@ -8638,16 +8668,16 @@
         <v>387</v>
       </c>
       <c r="C210" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E210" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F210" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G210">
         <v>2016</v>
@@ -8662,16 +8692,16 @@
         <v>388</v>
       </c>
       <c r="C211" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E211" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F211" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G211">
         <v>2012</v>
@@ -8686,16 +8716,16 @@
         <v>389</v>
       </c>
       <c r="C212" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E212" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F212" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G212">
         <v>2004</v>
@@ -8710,16 +8740,16 @@
         <v>390</v>
       </c>
       <c r="C213" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E213" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F213" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G213">
         <v>2002</v>
@@ -8734,16 +8764,16 @@
         <v>391</v>
       </c>
       <c r="C214" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E214" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F214" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G214">
         <v>2002</v>
@@ -8758,16 +8788,16 @@
         <v>392</v>
       </c>
       <c r="C215" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E215" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F215" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G215">
         <v>2003</v>
@@ -8782,16 +8812,16 @@
         <v>393</v>
       </c>
       <c r="C216" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E216" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F216" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G216">
         <v>2002</v>
@@ -8806,16 +8836,16 @@
         <v>394</v>
       </c>
       <c r="C217" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E217" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G217">
         <v>2004</v>
@@ -8830,16 +8860,16 @@
         <v>395</v>
       </c>
       <c r="C218" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E218" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F218" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G218">
         <v>1983</v>
@@ -8854,16 +8884,16 @@
         <v>396</v>
       </c>
       <c r="C219" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E219" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F219" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G219">
         <v>2013</v>
@@ -8878,16 +8908,16 @@
         <v>397</v>
       </c>
       <c r="C220" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E220" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F220" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G220">
         <v>1978</v>
@@ -8902,16 +8932,16 @@
         <v>398</v>
       </c>
       <c r="C221" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E221" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F221" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G221">
         <v>1965</v>
@@ -8926,16 +8956,16 @@
         <v>399</v>
       </c>
       <c r="C222" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E222" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F222" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G222">
         <v>1991</v>
@@ -8950,16 +8980,16 @@
         <v>400</v>
       </c>
       <c r="C223" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E223" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F223" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G223">
         <v>1976</v>
@@ -8974,16 +9004,16 @@
         <v>401</v>
       </c>
       <c r="C224" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E224" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F224" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G224">
         <v>1988</v>
@@ -8998,16 +9028,16 @@
         <v>402</v>
       </c>
       <c r="C225" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E225" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F225" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G225">
         <v>1993</v>
@@ -9022,16 +9052,16 @@
         <v>403</v>
       </c>
       <c r="C226" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E226" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F226" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G226">
         <v>1973</v>
@@ -9046,16 +9076,16 @@
         <v>404</v>
       </c>
       <c r="C227" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E227" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F227" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G227">
         <v>1977</v>
@@ -9070,16 +9100,16 @@
         <v>405</v>
       </c>
       <c r="C228" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E228" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F228" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G228">
         <v>2002</v>
@@ -9094,16 +9124,16 @@
         <v>406</v>
       </c>
       <c r="C229" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E229" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F229" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G229">
         <v>2001</v>
@@ -9118,16 +9148,16 @@
         <v>407</v>
       </c>
       <c r="C230" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E230" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F230" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G230">
         <v>1991</v>
@@ -9142,16 +9172,16 @@
         <v>408</v>
       </c>
       <c r="C231" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E231" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F231" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G231">
         <v>1989</v>
@@ -9166,16 +9196,16 @@
         <v>409</v>
       </c>
       <c r="C232" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E232" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F232" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G232">
         <v>2004</v>
@@ -9190,16 +9220,16 @@
         <v>410</v>
       </c>
       <c r="C233" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E233" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F233" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G233">
         <v>2017</v>
@@ -9214,16 +9244,16 @@
         <v>411</v>
       </c>
       <c r="C234" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E234" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F234" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G234">
         <v>2013</v>
@@ -9238,16 +9268,16 @@
         <v>412</v>
       </c>
       <c r="C235" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E235" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F235" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G235">
         <v>1991</v>
@@ -9262,16 +9292,16 @@
         <v>413</v>
       </c>
       <c r="C236" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E236" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F236" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G236">
         <v>1992</v>
@@ -9286,16 +9316,16 @@
         <v>414</v>
       </c>
       <c r="C237" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E237" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F237" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G237">
         <v>1978</v>
@@ -9310,16 +9340,16 @@
         <v>415</v>
       </c>
       <c r="C238" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E238" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F238" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G238">
         <v>1991</v>
@@ -9334,16 +9364,16 @@
         <v>416</v>
       </c>
       <c r="C239" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E239" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F239" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G239">
         <v>1976</v>
@@ -9358,16 +9388,16 @@
         <v>417</v>
       </c>
       <c r="C240" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E240" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F240" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G240">
         <v>1979</v>
@@ -9382,16 +9412,16 @@
         <v>418</v>
       </c>
       <c r="C241" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E241" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F241" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G241">
         <v>1970</v>
@@ -9406,16 +9436,16 @@
         <v>419</v>
       </c>
       <c r="C242" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E242" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F242" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G242">
         <v>2000</v>
@@ -9430,16 +9460,16 @@
         <v>420</v>
       </c>
       <c r="C243" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E243" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F243" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G243">
         <v>2000</v>
@@ -9456,16 +9486,16 @@
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C245" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E245" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F245" t="s">
         <v>422</v>
@@ -9480,16 +9510,19 @@
         <v>2</v>
       </c>
       <c r="B246" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C246" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E246" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1039</v>
       </c>
       <c r="G246">
         <v>1998</v>
@@ -9504,16 +9537,16 @@
         <v>423</v>
       </c>
       <c r="C247" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E247" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F247" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G247">
         <v>2017</v>
@@ -9525,16 +9558,19 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C248" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E248" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1039</v>
       </c>
       <c r="G248">
         <v>2018</v>
@@ -9546,19 +9582,19 @@
         <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C249" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E249" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F249" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G249">
         <v>2016</v>
@@ -9570,19 +9606,19 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C250" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E250" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F250" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G250">
         <v>2015</v>
@@ -9597,16 +9633,16 @@
         <v>424</v>
       </c>
       <c r="C251" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E251" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F251" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G251">
         <v>2016</v>
@@ -9618,19 +9654,19 @@
         <v>8</v>
       </c>
       <c r="B252" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C252" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E252" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F252" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G252">
         <v>2018</v>
@@ -9645,16 +9681,16 @@
         <v>425</v>
       </c>
       <c r="C253" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D253" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="E253" t="s">
+        <v>801</v>
+      </c>
+      <c r="F253" t="s">
         <v>954</v>
-      </c>
-      <c r="E253" t="s">
-        <v>802</v>
-      </c>
-      <c r="F253" t="s">
-        <v>955</v>
       </c>
       <c r="G253">
         <v>2014</v>
@@ -9666,19 +9702,19 @@
         <v>10</v>
       </c>
       <c r="B254" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C254" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E254" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G254">
         <v>2010</v>
@@ -9690,19 +9726,19 @@
         <v>11</v>
       </c>
       <c r="B255" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C255" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E255" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F255" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G255">
         <v>2008</v>
@@ -9714,19 +9750,19 @@
         <v>12</v>
       </c>
       <c r="B256" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C256" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E256" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F256" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G256">
         <v>1995</v>
@@ -9738,19 +9774,19 @@
         <v>13</v>
       </c>
       <c r="B257" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C257" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E257" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F257" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G257">
         <v>2015</v>
@@ -9762,19 +9798,19 @@
         <v>14</v>
       </c>
       <c r="B258" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C258" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E258" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F258" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G258">
         <v>2007</v>
@@ -9786,19 +9822,19 @@
         <v>15</v>
       </c>
       <c r="B259" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C259" t="s">
+        <v>802</v>
+      </c>
+      <c r="D259" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="C259" t="s">
-        <v>803</v>
-      </c>
-      <c r="D259" s="7" t="s">
-        <v>1004</v>
-      </c>
       <c r="E259" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F259" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G259">
         <v>2016</v>
@@ -9813,16 +9849,16 @@
         <v>426</v>
       </c>
       <c r="C260" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E260" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F260" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G260">
         <v>2016</v>
@@ -9834,19 +9870,19 @@
         <v>17</v>
       </c>
       <c r="B261" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C261" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E261" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F261" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G261">
         <v>1962</v>
@@ -9858,19 +9894,19 @@
         <v>18</v>
       </c>
       <c r="B262" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C262" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E262" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F262" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G262">
         <v>2010</v>
@@ -9882,16 +9918,16 @@
         <v>19</v>
       </c>
       <c r="B263" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C263" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E263" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F263" t="s">
         <v>427</v>
@@ -9906,19 +9942,19 @@
         <v>20</v>
       </c>
       <c r="B264" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C264" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E264" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F264" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G264">
         <v>2009</v>
@@ -9930,19 +9966,19 @@
         <v>21</v>
       </c>
       <c r="B265" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C265" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E265" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F265" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G265">
         <v>2008</v>
@@ -9954,19 +9990,19 @@
         <v>22</v>
       </c>
       <c r="B266" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C266" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E266" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F266" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G266">
         <v>2014</v>
@@ -9981,16 +10017,16 @@
         <v>428</v>
       </c>
       <c r="C267" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E267" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F267" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G267">
         <v>2010</v>
@@ -10002,19 +10038,19 @@
         <v>24</v>
       </c>
       <c r="B268" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C268" t="s">
+        <v>802</v>
+      </c>
+      <c r="D268" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="C268" t="s">
-        <v>803</v>
-      </c>
-      <c r="D268" s="7" t="s">
-        <v>1002</v>
-      </c>
       <c r="E268" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F268" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G268">
         <v>2018</v>
@@ -10026,16 +10062,19 @@
         <v>25</v>
       </c>
       <c r="B269" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C269" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E269" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1039</v>
       </c>
       <c r="G269">
         <v>1990</v>
@@ -10047,16 +10086,19 @@
         <v>26</v>
       </c>
       <c r="B270" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C270" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E270" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1039</v>
       </c>
       <c r="G270">
         <v>2016</v>
@@ -10068,16 +10110,19 @@
         <v>27</v>
       </c>
       <c r="B271" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C271" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E271" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1039</v>
       </c>
       <c r="G271">
         <v>2008</v>
@@ -10092,13 +10137,16 @@
         <v>429</v>
       </c>
       <c r="C272" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E272" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1039</v>
       </c>
       <c r="G272">
         <v>2016</v>
@@ -10113,13 +10161,16 @@
         <v>430</v>
       </c>
       <c r="C273" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E273" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1039</v>
       </c>
       <c r="G273">
         <v>2018</v>
@@ -10131,16 +10182,19 @@
         <v>30</v>
       </c>
       <c r="B274" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C274" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E274" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1039</v>
       </c>
       <c r="G274">
         <v>2013</v>
@@ -10155,13 +10209,16 @@
         <v>431</v>
       </c>
       <c r="C275" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E275" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1039</v>
       </c>
       <c r="G275">
         <v>2012</v>
@@ -10173,16 +10230,19 @@
         <v>32</v>
       </c>
       <c r="B276" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C276" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E276" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1039</v>
       </c>
       <c r="G276">
         <v>1989</v>
@@ -10197,13 +10257,16 @@
         <v>432</v>
       </c>
       <c r="C277" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E277" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1039</v>
       </c>
       <c r="G277">
         <v>2015</v>
@@ -10215,16 +10278,16 @@
         <v>34</v>
       </c>
       <c r="B278" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C278" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E278" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F278" t="s">
         <v>433</v>
@@ -10239,16 +10302,19 @@
         <v>35</v>
       </c>
       <c r="B279" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C279" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E279" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1039</v>
       </c>
       <c r="G279">
         <v>2001</v>
@@ -10260,16 +10326,19 @@
         <v>36</v>
       </c>
       <c r="B280" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C280" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E280" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1039</v>
       </c>
       <c r="G280">
         <v>2018</v>
@@ -10281,16 +10350,16 @@
         <v>37</v>
       </c>
       <c r="B281" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C281" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E281" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F281" t="s">
         <v>434</v>
@@ -10305,16 +10374,19 @@
         <v>38</v>
       </c>
       <c r="B282" t="s">
+        <v>993</v>
+      </c>
+      <c r="C282" t="s">
+        <v>802</v>
+      </c>
+      <c r="D282" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="C282" t="s">
-        <v>803</v>
-      </c>
-      <c r="D282" s="7" t="s">
-        <v>995</v>
-      </c>
       <c r="E282" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1039</v>
       </c>
       <c r="G282">
         <v>2013</v>
@@ -10326,16 +10398,19 @@
         <v>39</v>
       </c>
       <c r="B283" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C283" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E283" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1039</v>
       </c>
       <c r="G283">
         <v>2015</v>
@@ -10347,16 +10422,16 @@
         <v>40</v>
       </c>
       <c r="B284" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C284" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E284" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F284" t="s">
         <v>435</v>
@@ -10371,16 +10446,19 @@
         <v>41</v>
       </c>
       <c r="B285" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C285" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E285" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1039</v>
       </c>
       <c r="G285">
         <v>2009</v>
@@ -10395,13 +10473,16 @@
         <v>436</v>
       </c>
       <c r="C286" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E286" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1039</v>
       </c>
       <c r="G286">
         <v>2015</v>
@@ -10413,16 +10494,19 @@
         <v>43</v>
       </c>
       <c r="B287" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C287" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E287" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1039</v>
       </c>
       <c r="G287">
         <v>1994</v>
@@ -10434,16 +10518,19 @@
         <v>44</v>
       </c>
       <c r="B288" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C288" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E288" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1039</v>
       </c>
       <c r="G288">
         <v>2013</v>
@@ -10455,16 +10542,16 @@
         <v>45</v>
       </c>
       <c r="B289" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C289" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E289" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F289" t="s">
         <v>437</v>
@@ -10479,16 +10566,19 @@
         <v>46</v>
       </c>
       <c r="B290" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C290" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E290" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1039</v>
       </c>
       <c r="G290">
         <v>2010</v>
@@ -10503,13 +10593,16 @@
         <v>438</v>
       </c>
       <c r="C291" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E291" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1039</v>
       </c>
       <c r="G291">
         <v>2016</v>
@@ -10524,13 +10617,16 @@
         <v>439</v>
       </c>
       <c r="C292" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E292" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1039</v>
       </c>
       <c r="G292">
         <v>2017</v>
@@ -10542,16 +10638,19 @@
         <v>49</v>
       </c>
       <c r="B293" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C293" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E293" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1039</v>
       </c>
       <c r="G293">
         <v>2014</v>
@@ -10566,13 +10665,16 @@
         <v>440</v>
       </c>
       <c r="C294" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E294" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1039</v>
       </c>
       <c r="G294">
         <v>2016</v>
@@ -10584,16 +10686,19 @@
         <v>51</v>
       </c>
       <c r="B295" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C295" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E295" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1039</v>
       </c>
       <c r="G295">
         <v>1996</v>
@@ -10615,13 +10720,19 @@
         <v>442</v>
       </c>
       <c r="C297" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G297" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -10633,13 +10744,19 @@
         <v>443</v>
       </c>
       <c r="C298" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -10651,16 +10768,19 @@
         <v>444</v>
       </c>
       <c r="C299" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F299" t="s">
         <v>445</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -10672,16 +10792,19 @@
         <v>446</v>
       </c>
       <c r="C300" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F300" t="s">
         <v>447</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -10693,13 +10816,19 @@
         <v>448</v>
       </c>
       <c r="C301" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -10711,13 +10840,19 @@
         <v>449</v>
       </c>
       <c r="C302" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -10729,13 +10864,19 @@
         <v>450</v>
       </c>
       <c r="C303" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G303" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -10747,19 +10888,22 @@
         <v>451</v>
       </c>
       <c r="C304" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F304" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="G304" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -10768,16 +10912,22 @@
         <v>453</v>
       </c>
       <c r="C305" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <f t="shared" si="7"/>
         <v>10</v>
@@ -10786,16 +10936,22 @@
         <v>454</v>
       </c>
       <c r="C306" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <f t="shared" si="7"/>
         <v>11</v>
@@ -10804,19 +10960,22 @@
         <v>455</v>
       </c>
       <c r="C307" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F307" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="G307" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308">
         <f t="shared" si="7"/>
         <v>12</v>
@@ -10825,16 +10984,22 @@
         <v>457</v>
       </c>
       <c r="C308" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -10843,16 +11008,22 @@
         <v>458</v>
       </c>
       <c r="C309" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G309" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <f t="shared" si="7"/>
         <v>14</v>
@@ -10861,16 +11032,22 @@
         <v>459</v>
       </c>
       <c r="C310" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G310" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <f t="shared" si="7"/>
         <v>15</v>
@@ -10879,16 +11056,22 @@
         <v>460</v>
       </c>
       <c r="C311" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G311" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <f t="shared" si="7"/>
         <v>16</v>
@@ -10897,19 +11080,22 @@
         <v>461</v>
       </c>
       <c r="C312" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F312" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="G312" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <f t="shared" si="7"/>
         <v>17</v>
@@ -10918,16 +11104,22 @@
         <v>463</v>
       </c>
       <c r="C313" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G313" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <f t="shared" si="7"/>
         <v>18</v>
@@ -10936,16 +11128,22 @@
         <v>464</v>
       </c>
       <c r="C314" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <f t="shared" si="7"/>
         <v>19</v>
@@ -10954,19 +11152,22 @@
         <v>465</v>
       </c>
       <c r="C315" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F315" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="G315" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <f t="shared" si="7"/>
         <v>20</v>
@@ -10975,16 +11176,22 @@
         <v>467</v>
       </c>
       <c r="C316" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <f t="shared" si="7"/>
         <v>21</v>
@@ -10993,16 +11200,22 @@
         <v>468</v>
       </c>
       <c r="C317" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <f t="shared" si="7"/>
         <v>22</v>
@@ -11011,27 +11224,33 @@
         <v>469</v>
       </c>
       <c r="C318" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F318" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" ht="15">
+      <c r="G318" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="15">
       <c r="B319" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="G319" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320">
         <v>1</v>
       </c>
@@ -11039,16 +11258,22 @@
         <v>472</v>
       </c>
       <c r="C320" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E320" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321">
         <f>A320+1</f>
         <v>2</v>
@@ -11057,16 +11282,22 @@
         <v>473</v>
       </c>
       <c r="C321" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E321" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322">
         <f t="shared" ref="A322:A365" si="8">A321+1</f>
         <v>3</v>
@@ -11075,19 +11306,22 @@
         <v>474</v>
       </c>
       <c r="C322" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E322" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F322" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="G322" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -11096,19 +11330,22 @@
         <v>476</v>
       </c>
       <c r="C323" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E323" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F323" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="G323" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -11117,16 +11354,22 @@
         <v>478</v>
       </c>
       <c r="C324" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E324" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -11135,19 +11378,22 @@
         <v>479</v>
       </c>
       <c r="C325" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E325" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F325" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="G325" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -11156,16 +11402,22 @@
         <v>481</v>
       </c>
       <c r="C326" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E326" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -11174,16 +11426,22 @@
         <v>482</v>
       </c>
       <c r="C327" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E327" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -11192,16 +11450,22 @@
         <v>483</v>
       </c>
       <c r="C328" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E328" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -11210,16 +11474,22 @@
         <v>484</v>
       </c>
       <c r="C329" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E329" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330">
         <f t="shared" si="8"/>
         <v>11</v>
@@ -11228,16 +11498,22 @@
         <v>485</v>
       </c>
       <c r="C330" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E330" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -11246,16 +11522,22 @@
         <v>486</v>
       </c>
       <c r="C331" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E331" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332">
         <f t="shared" si="8"/>
         <v>13</v>
@@ -11264,16 +11546,22 @@
         <v>487</v>
       </c>
       <c r="C332" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E332" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333">
         <f t="shared" si="8"/>
         <v>14</v>
@@ -11282,16 +11570,22 @@
         <v>488</v>
       </c>
       <c r="C333" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E333" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334">
         <f t="shared" si="8"/>
         <v>15</v>
@@ -11300,16 +11594,22 @@
         <v>489</v>
       </c>
       <c r="C334" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E334" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335">
         <f t="shared" si="8"/>
         <v>16</v>
@@ -11318,16 +11618,22 @@
         <v>490</v>
       </c>
       <c r="C335" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E335" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336">
         <f t="shared" si="8"/>
         <v>17</v>
@@ -11336,16 +11642,22 @@
         <v>491</v>
       </c>
       <c r="C336" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E336" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337">
         <f t="shared" si="8"/>
         <v>18</v>
@@ -11354,16 +11666,22 @@
         <v>492</v>
       </c>
       <c r="C337" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E337" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338">
         <f t="shared" si="8"/>
         <v>19</v>
@@ -11372,16 +11690,22 @@
         <v>493</v>
       </c>
       <c r="C338" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E338" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339">
         <f t="shared" si="8"/>
         <v>20</v>
@@ -11390,19 +11714,22 @@
         <v>494</v>
       </c>
       <c r="C339" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E339" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F339" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="340" spans="1:6">
+      <c r="G339" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340">
         <f t="shared" si="8"/>
         <v>21</v>
@@ -11411,19 +11738,22 @@
         <v>496</v>
       </c>
       <c r="C340" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E340" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F340" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+        <v>928</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341">
         <f t="shared" si="8"/>
         <v>22</v>
@@ -11432,16 +11762,22 @@
         <v>497</v>
       </c>
       <c r="C341" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E341" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342">
         <f t="shared" si="8"/>
         <v>23</v>
@@ -11450,16 +11786,22 @@
         <v>498</v>
       </c>
       <c r="C342" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E342" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -11468,16 +11810,22 @@
         <v>499</v>
       </c>
       <c r="C343" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E343" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344">
         <f t="shared" si="8"/>
         <v>25</v>
@@ -11486,16 +11834,22 @@
         <v>500</v>
       </c>
       <c r="C344" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E344" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345">
         <f t="shared" si="8"/>
         <v>26</v>
@@ -11504,16 +11858,22 @@
         <v>501</v>
       </c>
       <c r="C345" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E345" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346">
         <f t="shared" si="8"/>
         <v>27</v>
@@ -11522,16 +11882,22 @@
         <v>502</v>
       </c>
       <c r="C346" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E346" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -11540,16 +11906,22 @@
         <v>503</v>
       </c>
       <c r="C347" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E347" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -11558,16 +11930,22 @@
         <v>504</v>
       </c>
       <c r="C348" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E348" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -11576,16 +11954,22 @@
         <v>505</v>
       </c>
       <c r="C349" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E349" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G349" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350">
         <f t="shared" si="8"/>
         <v>31</v>
@@ -11594,16 +11978,22 @@
         <v>506</v>
       </c>
       <c r="C350" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E350" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G350" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351">
         <f t="shared" si="8"/>
         <v>32</v>
@@ -11612,16 +12002,22 @@
         <v>507</v>
       </c>
       <c r="C351" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E351" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+        <v>800</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G351" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -11630,16 +12026,22 @@
         <v>508</v>
       </c>
       <c r="C352" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E352" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G352" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -11648,16 +12050,22 @@
         <v>509</v>
       </c>
       <c r="C353" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E353" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -11666,16 +12074,22 @@
         <v>510</v>
       </c>
       <c r="C354" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E354" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G354" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -11684,16 +12098,22 @@
         <v>511</v>
       </c>
       <c r="C355" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E355" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G355" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356">
         <f t="shared" si="8"/>
         <v>37</v>
@@ -11702,16 +12122,22 @@
         <v>512</v>
       </c>
       <c r="C356" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E356" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G356" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357">
         <f t="shared" si="8"/>
         <v>38</v>
@@ -11720,16 +12146,22 @@
         <v>513</v>
       </c>
       <c r="C357" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E357" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G357" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358">
         <f t="shared" si="8"/>
         <v>39</v>
@@ -11738,16 +12170,22 @@
         <v>514</v>
       </c>
       <c r="C358" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E358" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G358" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359">
         <f t="shared" si="8"/>
         <v>40</v>
@@ -11756,16 +12194,22 @@
         <v>515</v>
       </c>
       <c r="C359" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E359" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G359" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360">
         <f t="shared" si="8"/>
         <v>41</v>
@@ -11774,16 +12218,22 @@
         <v>516</v>
       </c>
       <c r="C360" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E360" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G360" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361">
         <f t="shared" si="8"/>
         <v>42</v>
@@ -11792,16 +12242,22 @@
         <v>517</v>
       </c>
       <c r="C361" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E361" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362">
         <f t="shared" si="8"/>
         <v>43</v>
@@ -11810,16 +12266,22 @@
         <v>518</v>
       </c>
       <c r="C362" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E362" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G362" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363">
         <f t="shared" si="8"/>
         <v>44</v>
@@ -11828,16 +12290,22 @@
         <v>519</v>
       </c>
       <c r="C363" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D363" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E363" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F363" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G363" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364">
         <f t="shared" si="8"/>
         <v>45</v>
@@ -11846,16 +12314,22 @@
         <v>520</v>
       </c>
       <c r="C364" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E364" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F364" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G364" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365">
         <f t="shared" si="8"/>
         <v>46</v>
@@ -11864,24 +12338,52 @@
         <v>521</v>
       </c>
       <c r="C365" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E365" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="15">
+        <v>800</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G365" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="F366" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G366" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="F367" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="15">
       <c r="B368" s="1" t="s">
         <v>522</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
-    </row>
-    <row r="369" spans="1:6">
+      <c r="F368" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G368" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369">
         <v>1</v>
       </c>
@@ -11889,16 +12391,22 @@
         <v>523</v>
       </c>
       <c r="C369" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F369" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
       <c r="A370">
         <f>A369+1</f>
         <v>2</v>
@@ -11907,16 +12415,22 @@
         <v>524</v>
       </c>
       <c r="C370" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F370" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
       <c r="A371">
         <f t="shared" ref="A371:A388" si="9">A370+1</f>
         <v>3</v>
@@ -11925,16 +12439,22 @@
         <v>525</v>
       </c>
       <c r="C371" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F371" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -11943,16 +12463,22 @@
         <v>526</v>
       </c>
       <c r="C372" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F372" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -11961,16 +12487,22 @@
         <v>527</v>
       </c>
       <c r="C373" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
       <c r="A374">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -11979,16 +12511,22 @@
         <v>528</v>
       </c>
       <c r="C374" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375">
         <f t="shared" si="9"/>
         <v>7</v>
@@ -11997,16 +12535,22 @@
         <v>529</v>
       </c>
       <c r="C375" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376">
         <f t="shared" si="9"/>
         <v>8</v>
@@ -12015,16 +12559,22 @@
         <v>530</v>
       </c>
       <c r="C376" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -12033,16 +12583,22 @@
         <v>531</v>
       </c>
       <c r="C377" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D377" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
       <c r="A378">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -12051,16 +12607,22 @@
         <v>532</v>
       </c>
       <c r="C378" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D378" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
       <c r="A379">
         <f t="shared" si="9"/>
         <v>11</v>
@@ -12069,16 +12631,22 @@
         <v>533</v>
       </c>
       <c r="C379" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D379" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380">
         <f t="shared" si="9"/>
         <v>12</v>
@@ -12087,16 +12655,22 @@
         <v>534</v>
       </c>
       <c r="C380" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D380" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381">
         <f t="shared" si="9"/>
         <v>13</v>
@@ -12105,16 +12679,22 @@
         <v>535</v>
       </c>
       <c r="C381" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D381" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382">
         <f t="shared" si="9"/>
         <v>14</v>
@@ -12123,16 +12703,22 @@
         <v>536</v>
       </c>
       <c r="C382" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D382" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383">
         <f t="shared" si="9"/>
         <v>15</v>
@@ -12141,19 +12727,22 @@
         <v>537</v>
       </c>
       <c r="C383" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D383" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F383" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="384" spans="1:6">
+      <c r="G383" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384">
         <f t="shared" si="9"/>
         <v>16</v>
@@ -12162,16 +12751,22 @@
         <v>539</v>
       </c>
       <c r="C384" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D384" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385">
         <f t="shared" si="9"/>
         <v>17</v>
@@ -12180,16 +12775,22 @@
         <v>540</v>
       </c>
       <c r="C385" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D385" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
+        <v>801</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386">
         <f t="shared" si="9"/>
         <v>18</v>
@@ -12198,19 +12799,22 @@
         <v>541</v>
       </c>
       <c r="C386" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F386" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="387" spans="1:6">
+      <c r="G386" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387">
         <f t="shared" si="9"/>
         <v>19</v>
@@ -12219,19 +12823,22 @@
         <v>543</v>
       </c>
       <c r="C387" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D387" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F387" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="388" spans="1:6">
+      <c r="G387" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388">
         <f t="shared" si="9"/>
         <v>20</v>
@@ -12240,16 +12847,19 @@
         <v>545</v>
       </c>
       <c r="C388" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D388" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F388" t="s">
         <v>546</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
